--- a/biology/Botanique/Liste_des_espèces_d'Agave/Liste_des_espèces_d'Agave.xlsx
+++ b/biology/Botanique/Liste_des_espèces_d'Agave/Liste_des_espèces_d'Agave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2019, la base de Kew gardens : World Checklist of Selected Plant Families et les références de Plants of the World Online reconnaissent quelque 270 espèces d'Agave avec, en plus, un certain nombre d'hybrides naturels. Ceci en incluant les espèces anciennement dans les genres Manfreda et Polianthes. D'autres sources utilisent des circonscriptions différentes[1],[2],[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2019, la base de Kew gardens : World Checklist of Selected Plant Families et les références de Plants of the World Online reconnaissent quelque 270 espèces d'Agave avec, en plus, un certain nombre d'hybrides naturels. Ceci en incluant les espèces anciennement dans les genres Manfreda et Polianthes. D'autres sources utilisent des circonscriptions différentes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agave abisaii A.Vázquez &amp; Nieves – Mexique (Jalisco)
 Agave acicularis Trel. - Cuba
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +580,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agave bahamana Trel. - Bahamas
 Agave beaulueriana Jacobi = Agave americana var. franzosinii
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agave cacozela Trel. - Bahamas (Eleuthera)
 Agave cajalbanensis A.Álvarez - Cuba
@@ -630,7 +648,7 @@
 Agave confertiflora Thiede &amp; Eggli – Mexique (Chihuahua)
 Agave congesta Gentry - Chiapas
 Agave convallis Trel. - Oaxaca
-Agave cremnophila - Oaxaca[7]
+Agave cremnophila - Oaxaca
 Agave cundinamarcensis A.Berger - Colombie
 Agave cupreata Trel. &amp; A.Berger - Guerrero, Michoacán</t>
         </is>
@@ -642,7 +660,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -660,7 +678,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agave dasylirioides Jacobi &amp; C. D. Bouché - Morelos, État de Mexico
 Agave datylio F. A. C. Weber - Basse-Californie du Sud
@@ -683,7 +703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -701,7 +721,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Agave eggersiana Trel.  – Agave sainte-Croix - les Îles Vierges américaines (ste Croix, Saint-Thomas)
 Agave ehrenbergii Jacobi - Cuba = Agave mitis Mart.
@@ -717,7 +739,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,7 +757,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Agave felgeri Gentry – Mescalito - Sonora
 Agave filifera Salm-Dyck – Fil-des feuilles d'Agave - Querétaro au Mexique de l'État, Aguascalientes, Hidalgo, San Luis Potosí
@@ -753,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +795,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Agave galvaniae (A. Castañeda – Mexico ( État de México)
 Agave garciae-mendozae Galván &amp; L. Hern.  - Hidalgo
@@ -801,7 +827,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -819,7 +845,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Agave harrisii Trel.  - Jamaïque
 Agave hauniensis J. B. Petersen – C. Mexique (à l'état de Guerrero)
@@ -838,7 +866,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -856,7 +884,9 @@
           <t>I–J</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Agave impressa Gentry - Sinaloa
 Agave inaequidens K.Koch - Mexico
@@ -879,7 +909,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -897,7 +927,9 @@
           <t>K–L</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Agave karatto Mill. -  Antilles
 Agave karwinskii Zucc. - Oaxaca, Puebla
@@ -920,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -938,7 +970,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Agave macroacantha Zucc. - Puebla, Oaxaca
 Agave maculata Regel – S. Texas to NE. Mexico
@@ -972,7 +1006,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -990,7 +1024,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Agave nanchititlensis (Matuda) ined. – Mexico (México State)
 Agave nashii Trel. - Bahamas (Inagua)
@@ -1011,7 +1047,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1029,7 +1065,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Agave oaxacana (García-Mend. &amp; E.Solano) Thiede – Mexico (Oaxaca)
 Agave obscura Schiede ex Schltdl. - Mexico
@@ -1049,7 +1087,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1067,7 +1105,9 @@
           <t>P–Q</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Agave pablocarrilloi A.Vázquez – Mexico (Colima)
 Agave pachycentra Trel. - Chiapas, Guatemala, El Salvador, Honduras
@@ -1114,7 +1154,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1132,7 +1172,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Agave revoluta Klotzsch – Mexico (México State)
 Agave rhodacantha Trel. - Mexico
@@ -1149,7 +1191,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1209,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Agave salmiana Otto ex Salm-Dyck – Pulque, Maguey, Maguey de montaña - Mexico; naturalized in South Africa, Canary Islands
 Agave scabra Ortega – Mexico to Nicaragua
@@ -1200,7 +1244,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1218,7 +1262,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Agave tecta Trel. - Guatemala
 Agave temacapulinensis A.Vázquez &amp; Cházaro – Mexico (Jalisco)
@@ -1239,7 +1285,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1257,7 +1303,9 @@
           <t>U–V</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Agave umbrophila (García-Mend.) Thiede – Mexico (Guerrero, Oaxaca)
 Agave underwoodii Trel. - Cuba
@@ -1285,7 +1333,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1303,7 +1351,9 @@
           <t>W–Z</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Agave wallisii Jacobi - Colombie
 Agave warelliana Baker - Veracruz, Oaxaca, Chiapas
@@ -1324,7 +1374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Agave</t>
+          <t>Liste_des_espèces_d'Agave</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1342,7 +1392,9 @@
           <t>Précédemment inclus</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces des genres Manfreda et Polianthes sont inscrites dans les Agave.
 Agave argyrophylla, synonyme de Furcraea parmentieri
